--- a/Monthly Report - FEB 2020.xlsx
+++ b/Monthly Report - FEB 2020.xlsx
@@ -52,9 +52,6 @@
     <t>Weekly Report</t>
   </si>
   <si>
-    <t>Jan'2020                 Transport Usage:  N/A</t>
-  </si>
-  <si>
     <t>Hyderabad</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>Weekly Report by __Rupa_________ Feb 2020</t>
+  </si>
+  <si>
+    <t>Feb'2020                 Transport Usage:  N/A</t>
   </si>
 </sst>
 </file>
@@ -977,7 +977,7 @@
   <dimension ref="B1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,7 +996,7 @@
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="16.5" x14ac:dyDescent="0.25">
@@ -1094,19 +1094,19 @@
         <v>43862</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="10">
         <v>7</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="10">
         <v>14</v>
@@ -1128,19 +1128,19 @@
         <v>43864</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="10">
         <v>7</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="10">
         <v>14</v>
@@ -1151,19 +1151,19 @@
         <v>43865</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="10">
         <v>7</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="10">
         <v>14</v>
@@ -1174,19 +1174,19 @@
         <v>43866</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="10">
         <v>7</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="10">
         <v>14</v>
@@ -1197,19 +1197,19 @@
         <v>43867</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="10">
         <v>7</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="10">
         <v>14</v>
@@ -1220,19 +1220,19 @@
         <v>43868</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="10">
         <v>7</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="10">
         <v>14</v>
@@ -1243,19 +1243,19 @@
         <v>43869</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="10">
         <v>7</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="10">
         <v>14</v>
@@ -1277,19 +1277,19 @@
         <v>43871</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="10">
         <v>7</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="10">
         <v>14</v>
@@ -1300,19 +1300,19 @@
         <v>43872</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="10">
         <v>7</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="10">
         <v>14</v>
@@ -1323,19 +1323,19 @@
         <v>43873</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="10">
         <v>7</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" s="10">
         <v>14</v>
@@ -1346,19 +1346,19 @@
         <v>43874</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="10">
         <v>7</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="10">
         <v>14</v>
@@ -1369,19 +1369,19 @@
         <v>43875</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="10">
         <v>7</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="10">
         <v>14</v>
@@ -1392,19 +1392,19 @@
         <v>43876</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="10">
         <v>7</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="10">
         <v>14</v>
@@ -1426,19 +1426,19 @@
         <v>43878</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="10">
         <v>7</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" s="10">
         <v>14</v>
@@ -1449,19 +1449,19 @@
         <v>43879</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" s="10">
         <v>7</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" s="10">
         <v>14</v>
@@ -1472,19 +1472,19 @@
         <v>43880</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" s="10">
         <v>7</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="10">
         <v>14</v>
@@ -1495,19 +1495,19 @@
         <v>43881</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" s="10">
         <v>7</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" s="10">
         <v>14</v>
@@ -1518,19 +1518,19 @@
         <v>43882</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="10">
         <v>7</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" s="10">
         <v>14</v>
@@ -1541,19 +1541,19 @@
         <v>43883</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="10">
         <v>7</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" s="10">
         <v>14</v>
@@ -1575,19 +1575,19 @@
         <v>43885</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="10">
         <v>7</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" s="10">
         <v>14</v>
@@ -1598,19 +1598,19 @@
         <v>43886</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" s="10">
         <v>7</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" s="10">
         <v>14</v>
@@ -1621,19 +1621,19 @@
         <v>43887</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="10">
         <v>7</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" s="10">
         <v>14</v>
@@ -1644,19 +1644,19 @@
         <v>43888</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" s="10">
         <v>7</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" s="10">
         <v>14</v>
@@ -1667,19 +1667,19 @@
         <v>43889</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" s="10">
         <v>7</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" s="10">
         <v>14</v>
@@ -1690,19 +1690,19 @@
         <v>43890</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" s="10">
         <v>7</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H37" s="10">
         <v>14</v>
